--- a/knowledge_base.xlsx
+++ b/knowledge_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\990180\ChatbotAI-LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2C6684-F98D-47BA-B6EC-D49C44149C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46AE240-1AC8-460C-B22C-5D1B10133341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="350" windowWidth="9800" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="310" windowWidth="9800" windowHeight="9770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="244">
   <si>
     <t>product_name</t>
   </si>
@@ -743,16 +743,22 @@
   </si>
   <si>
     <t>http://benziro.com/home/delivery/jasa-instalasi-listrik-murah-benziro</t>
+  </si>
+  <si>
+    <t>Tokopedia</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/sinshekomputer/ruijie-rg-es216gc-16-port-gigabit-ethernet-cloud-managed-switch)</t>
+  </si>
+  <si>
+    <t>Ruijie RG-ES216GC 16-Port Gigabit Cloud Managed Switch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,21 +770,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -813,22 +804,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1129,19 +1114,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.90625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1161,7 +1140,7 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>300000</v>
       </c>
       <c r="C2" t="s">
@@ -1175,7 +1154,7 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>2000000</v>
       </c>
       <c r="C3" t="s">
@@ -1189,7 +1168,7 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>2700000</v>
       </c>
       <c r="C4" t="s">
@@ -1203,13 +1182,13 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>1700000</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1217,7 +1196,7 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>25000000</v>
       </c>
       <c r="C6" t="s">
@@ -1231,7 +1210,7 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>420000</v>
       </c>
       <c r="C7" t="s">
@@ -1245,7 +1224,7 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>255000</v>
       </c>
       <c r="C8" t="s">
@@ -1259,7 +1238,7 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>50000000</v>
       </c>
       <c r="C9" t="s">
@@ -1273,7 +1252,7 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>746850</v>
       </c>
       <c r="C10" t="s">
@@ -1287,7 +1266,7 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>222000</v>
       </c>
       <c r="C11" t="s">
@@ -1301,7 +1280,7 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>971805</v>
       </c>
       <c r="C12" t="s">
@@ -1315,7 +1294,7 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>600000</v>
       </c>
       <c r="C13" t="s">
@@ -1329,7 +1308,7 @@
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>800000</v>
       </c>
       <c r="C14" t="s">
@@ -1343,7 +1322,7 @@
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>800000</v>
       </c>
       <c r="C15" t="s">
@@ -1357,7 +1336,7 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>1200000</v>
       </c>
       <c r="C16" t="s">
@@ -1371,7 +1350,7 @@
       <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>1500000</v>
       </c>
       <c r="C17" t="s">
@@ -1385,7 +1364,7 @@
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>1750000</v>
       </c>
       <c r="C18" t="s">
@@ -1399,7 +1378,7 @@
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>60000000</v>
       </c>
       <c r="C19" t="s">
@@ -1413,7 +1392,7 @@
       <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>480000</v>
       </c>
       <c r="C20" t="s">
@@ -1427,7 +1406,7 @@
       <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>65000</v>
       </c>
       <c r="C21" t="s">
@@ -1441,7 +1420,7 @@
       <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>500000</v>
       </c>
       <c r="C22" t="s">
@@ -1455,7 +1434,7 @@
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>125000</v>
       </c>
       <c r="C23" t="s">
@@ -1469,7 +1448,7 @@
       <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>5000000</v>
       </c>
       <c r="C24" t="s">
@@ -1483,7 +1462,7 @@
       <c r="A25" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>459000</v>
       </c>
       <c r="C25" t="s">
@@ -1497,7 +1476,7 @@
       <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>4635000</v>
       </c>
       <c r="C26" t="s">
@@ -1511,7 +1490,7 @@
       <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>200000</v>
       </c>
       <c r="C27" t="s">
@@ -1525,7 +1504,7 @@
       <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>1500000</v>
       </c>
       <c r="C28" t="s">
@@ -1539,7 +1518,7 @@
       <c r="A29" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>772500</v>
       </c>
       <c r="C29" t="s">
@@ -1553,7 +1532,7 @@
       <c r="A30" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>16500</v>
       </c>
       <c r="C30" t="s">
@@ -1567,7 +1546,7 @@
       <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>300000</v>
       </c>
       <c r="C31" t="s">
@@ -1581,7 +1560,7 @@
       <c r="A32" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>180000</v>
       </c>
       <c r="C32" t="s">
@@ -1595,7 +1574,7 @@
       <c r="A33" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>2109000</v>
       </c>
       <c r="C33" t="s">
@@ -1609,7 +1588,7 @@
       <c r="A34" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>3000000</v>
       </c>
       <c r="C34" t="s">
@@ -1623,7 +1602,7 @@
       <c r="A35" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>15000000</v>
       </c>
       <c r="C35" t="s">
@@ -1637,7 +1616,7 @@
       <c r="A36" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>150000000</v>
       </c>
       <c r="C36" t="s">
@@ -1651,7 +1630,7 @@
       <c r="A37" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>12000</v>
       </c>
       <c r="C37" t="s">
@@ -1665,7 +1644,7 @@
       <c r="A38" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>5000</v>
       </c>
       <c r="C38" t="s">
@@ -1679,7 +1658,7 @@
       <c r="A39" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>480000</v>
       </c>
       <c r="C39" t="s">
@@ -1693,7 +1672,7 @@
       <c r="A40" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>800000</v>
       </c>
       <c r="C40" t="s">
@@ -1707,7 +1686,7 @@
       <c r="A41" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>950000</v>
       </c>
       <c r="C41" t="s">
@@ -1721,7 +1700,7 @@
       <c r="A42" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>2640000</v>
       </c>
       <c r="C42" t="s">
@@ -1735,7 +1714,7 @@
       <c r="A43" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>1890000</v>
       </c>
       <c r="C43" t="s">
@@ -1749,7 +1728,7 @@
       <c r="A44" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>900000</v>
       </c>
       <c r="C44" t="s">
@@ -1763,7 +1742,7 @@
       <c r="A45" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>1900000</v>
       </c>
       <c r="C45" t="s">
@@ -1777,7 +1756,7 @@
       <c r="A46" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>1545000</v>
       </c>
       <c r="C46" t="s">
@@ -1791,7 +1770,7 @@
       <c r="A47" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <v>3991000</v>
       </c>
       <c r="C47" t="s">
@@ -1805,7 +1784,7 @@
       <c r="A48" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>8818000</v>
       </c>
       <c r="C48" t="s">
@@ -1819,7 +1798,7 @@
       <c r="A49" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>14846000</v>
       </c>
       <c r="C49" t="s">
@@ -1833,7 +1812,7 @@
       <c r="A50" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
         <v>2422000</v>
       </c>
       <c r="C50" t="s">
@@ -1847,7 +1826,7 @@
       <c r="A51" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
         <v>5484600</v>
       </c>
       <c r="C51" t="s">
@@ -1861,7 +1840,7 @@
       <c r="A52" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52">
         <v>2174000</v>
       </c>
       <c r="C52" t="s">
@@ -1875,7 +1854,7 @@
       <c r="A53" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53">
         <v>445000</v>
       </c>
       <c r="C53" t="s">
@@ -1889,7 +1868,7 @@
       <c r="A54" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54">
         <v>495000</v>
       </c>
       <c r="C54" t="s">
@@ -1903,7 +1882,7 @@
       <c r="A55" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55">
         <v>599000</v>
       </c>
       <c r="C55" t="s">
@@ -1917,7 +1896,7 @@
       <c r="A56" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56">
         <v>1335000</v>
       </c>
       <c r="C56" t="s">
@@ -1931,7 +1910,7 @@
       <c r="A57" t="s">
         <v>99</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57">
         <v>7794563</v>
       </c>
       <c r="C57" t="s">
@@ -1945,7 +1924,7 @@
       <c r="A58" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58">
         <v>7674400</v>
       </c>
       <c r="C58" t="s">
@@ -1959,7 +1938,7 @@
       <c r="A59" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59">
         <v>7669434</v>
       </c>
       <c r="C59" t="s">
@@ -1973,7 +1952,7 @@
       <c r="A60" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60">
         <v>7664467</v>
       </c>
       <c r="C60" t="s">
@@ -1987,7 +1966,7 @@
       <c r="A61" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61">
         <v>7649569</v>
       </c>
       <c r="C61" t="s">
@@ -2001,7 +1980,7 @@
       <c r="A62" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62">
         <v>5840226</v>
       </c>
       <c r="C62" t="s">
@@ -2015,7 +1994,7 @@
       <c r="A63" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63">
         <v>5755079</v>
       </c>
       <c r="C63" t="s">
@@ -2029,7 +2008,7 @@
       <c r="A64" t="s">
         <v>112</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64">
         <v>5509843</v>
       </c>
       <c r="C64" t="s">
@@ -2043,7 +2022,7 @@
       <c r="A65" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65">
         <v>5533644</v>
       </c>
       <c r="C65" t="s">
@@ -2057,7 +2036,7 @@
       <c r="A66" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66">
         <v>5231504</v>
       </c>
       <c r="C66" t="s">
@@ -2071,7 +2050,7 @@
       <c r="A67" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67">
         <v>5031940</v>
       </c>
       <c r="C67" t="s">
@@ -2085,7 +2064,7 @@
       <c r="A68" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68">
         <v>5114407</v>
       </c>
       <c r="C68" t="s">
@@ -2099,7 +2078,7 @@
       <c r="A69" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69">
         <v>5069026</v>
       </c>
       <c r="C69" t="s">
@@ -2113,7 +2092,7 @@
       <c r="A70" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70">
         <v>5062709</v>
       </c>
       <c r="C70" t="s">
@@ -2127,7 +2106,7 @@
       <c r="A71" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71">
         <v>4879491</v>
       </c>
       <c r="C71" t="s">
@@ -2141,7 +2120,7 @@
       <c r="A72" t="s">
         <v>128</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72">
         <v>4828093</v>
       </c>
       <c r="C72" t="s">
@@ -2155,7 +2134,7 @@
       <c r="A73" t="s">
         <v>130</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73">
         <v>4789553</v>
       </c>
       <c r="C73" t="s">
@@ -2169,7 +2148,7 @@
       <c r="A74" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74">
         <v>4468056</v>
       </c>
       <c r="C74" t="s">
@@ -2183,7 +2162,7 @@
       <c r="A75" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75">
         <v>4345137</v>
       </c>
       <c r="C75" t="s">
@@ -2197,7 +2176,7 @@
       <c r="A76" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76">
         <v>4404199</v>
       </c>
       <c r="C76" t="s">
@@ -2211,7 +2190,7 @@
       <c r="A77" t="s">
         <v>138</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77">
         <v>4330738</v>
       </c>
       <c r="C77" t="s">
@@ -2225,7 +2204,7 @@
       <c r="A78" t="s">
         <v>140</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78">
         <v>4275254</v>
       </c>
       <c r="C78" t="s">
@@ -2239,7 +2218,7 @@
       <c r="A79" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79">
         <v>4264898</v>
       </c>
       <c r="C79" t="s">
@@ -2253,7 +2232,7 @@
       <c r="A80" t="s">
         <v>144</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80">
         <v>4360499</v>
       </c>
       <c r="C80" t="s">
@@ -2267,7 +2246,7 @@
       <c r="A81" t="s">
         <v>146</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81">
         <v>4242114</v>
       </c>
       <c r="C81" t="s">
@@ -2281,7 +2260,7 @@
       <c r="A82" t="s">
         <v>148</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82">
         <v>4228662</v>
       </c>
       <c r="C82" t="s">
@@ -2295,7 +2274,7 @@
       <c r="A83" t="s">
         <v>150</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
         <v>4238651</v>
       </c>
       <c r="C83" t="s">
@@ -2309,7 +2288,7 @@
       <c r="A84" t="s">
         <v>152</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84">
         <v>4220279</v>
       </c>
       <c r="C84" t="s">
@@ -2323,7 +2302,7 @@
       <c r="A85" t="s">
         <v>152</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85">
         <v>4213823</v>
       </c>
       <c r="C85" t="s">
@@ -2337,7 +2316,7 @@
       <c r="A86" t="s">
         <v>155</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86">
         <v>4208788</v>
       </c>
       <c r="C86" t="s">
@@ -2351,7 +2330,7 @@
       <c r="A87" t="s">
         <v>157</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87">
         <v>4188375</v>
       </c>
       <c r="C87" t="s">
@@ -2365,7 +2344,7 @@
       <c r="A88" t="s">
         <v>159</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88">
         <v>4156986</v>
       </c>
       <c r="C88" t="s">
@@ -2379,7 +2358,7 @@
       <c r="A89" t="s">
         <v>161</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89">
         <v>4133261</v>
       </c>
       <c r="C89" t="s">
@@ -2393,7 +2372,7 @@
       <c r="A90" t="s">
         <v>163</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90">
         <v>4217057</v>
       </c>
       <c r="C90" t="s">
@@ -2407,7 +2386,7 @@
       <c r="A91" t="s">
         <v>165</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91">
         <v>4134311</v>
       </c>
       <c r="C91" t="s">
@@ -2421,7 +2400,7 @@
       <c r="A92" t="s">
         <v>167</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92">
         <v>4191295</v>
       </c>
       <c r="C92" t="s">
@@ -2435,7 +2414,7 @@
       <c r="A93" t="s">
         <v>169</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93">
         <v>4118035</v>
       </c>
       <c r="C93" t="s">
@@ -2449,7 +2428,7 @@
       <c r="A94" t="s">
         <v>171</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94">
         <v>4216549</v>
       </c>
       <c r="C94" t="s">
@@ -2463,7 +2442,7 @@
       <c r="A95" t="s">
         <v>173</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95">
         <v>4139221</v>
       </c>
       <c r="C95" t="s">
@@ -2477,7 +2456,7 @@
       <c r="A96" t="s">
         <v>175</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96">
         <v>4048494</v>
       </c>
       <c r="C96" t="s">
@@ -2491,7 +2470,7 @@
       <c r="A97" t="s">
         <v>177</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97">
         <v>4048494</v>
       </c>
       <c r="C97" t="s">
@@ -2505,7 +2484,7 @@
       <c r="A98" t="s">
         <v>179</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98">
         <v>4048494</v>
       </c>
       <c r="C98" t="s">
@@ -2519,7 +2498,7 @@
       <c r="A99" t="s">
         <v>181</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99">
         <v>4048494</v>
       </c>
       <c r="C99" t="s">
@@ -2533,7 +2512,7 @@
       <c r="A100" t="s">
         <v>183</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100">
         <v>4048494</v>
       </c>
       <c r="C100" t="s">
@@ -2547,7 +2526,7 @@
       <c r="A101" t="s">
         <v>185</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101">
         <v>4048494</v>
       </c>
       <c r="C101" t="s">
@@ -2561,7 +2540,7 @@
       <c r="A102" t="s">
         <v>187</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102">
         <v>4048494</v>
       </c>
       <c r="C102" t="s">
@@ -2575,7 +2554,7 @@
       <c r="A103" t="s">
         <v>189</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103">
         <v>4048494</v>
       </c>
       <c r="C103" t="s">
@@ -2589,7 +2568,7 @@
       <c r="A104" t="s">
         <v>191</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104">
         <v>4048494</v>
       </c>
       <c r="C104" t="s">
@@ -2603,7 +2582,7 @@
       <c r="A105" t="s">
         <v>193</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105">
         <v>4048494</v>
       </c>
       <c r="C105" t="s">
@@ -2617,7 +2596,7 @@
       <c r="A106" t="s">
         <v>195</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106">
         <v>4048494</v>
       </c>
       <c r="C106" t="s">
@@ -2631,7 +2610,7 @@
       <c r="A107" t="s">
         <v>197</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107">
         <v>4048494</v>
       </c>
       <c r="C107" t="s">
@@ -2645,7 +2624,7 @@
       <c r="A108" t="s">
         <v>199</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108">
         <v>4048494</v>
       </c>
       <c r="C108" t="s">
@@ -2659,7 +2638,7 @@
       <c r="A109" t="s">
         <v>201</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109">
         <v>4048494</v>
       </c>
       <c r="C109" t="s">
@@ -2673,7 +2652,7 @@
       <c r="A110" t="s">
         <v>203</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110">
         <v>4048494</v>
       </c>
       <c r="C110" t="s">
@@ -2687,7 +2666,7 @@
       <c r="A111" t="s">
         <v>205</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111">
         <v>4048494</v>
       </c>
       <c r="C111" t="s">
@@ -2701,7 +2680,7 @@
       <c r="A112" t="s">
         <v>207</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112">
         <v>4048494</v>
       </c>
       <c r="C112" t="s">
@@ -2715,7 +2694,7 @@
       <c r="A113" t="s">
         <v>209</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113">
         <v>4048494</v>
       </c>
       <c r="C113" t="s">
@@ -2729,7 +2708,7 @@
       <c r="A114" t="s">
         <v>211</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114">
         <v>4048494</v>
       </c>
       <c r="C114" t="s">
@@ -2743,7 +2722,7 @@
       <c r="A115" t="s">
         <v>213</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115">
         <v>4048494</v>
       </c>
       <c r="C115" t="s">
@@ -2757,7 +2736,7 @@
       <c r="A116" t="s">
         <v>215</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116">
         <v>4048494</v>
       </c>
       <c r="C116" t="s">
@@ -2771,7 +2750,7 @@
       <c r="A117" t="s">
         <v>217</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117">
         <v>4731164</v>
       </c>
       <c r="C117" t="s">
@@ -2785,7 +2764,7 @@
       <c r="A118" t="s">
         <v>219</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118">
         <v>4560719</v>
       </c>
       <c r="C118" t="s">
@@ -2799,7 +2778,7 @@
       <c r="A119" t="s">
         <v>221</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119">
         <v>4481978</v>
       </c>
       <c r="C119" t="s">
@@ -2813,7 +2792,7 @@
       <c r="A120" t="s">
         <v>223</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120">
         <v>4447135</v>
       </c>
       <c r="C120" t="s">
@@ -2827,7 +2806,7 @@
       <c r="A121" t="s">
         <v>225</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121">
         <v>4430824</v>
       </c>
       <c r="C121" t="s">
@@ -2841,7 +2820,7 @@
       <c r="A122" t="s">
         <v>227</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122">
         <v>4407336</v>
       </c>
       <c r="C122" t="s">
@@ -2855,7 +2834,7 @@
       <c r="A123" t="s">
         <v>229</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123">
         <v>4406382</v>
       </c>
       <c r="C123" t="s">
@@ -2869,7 +2848,7 @@
       <c r="A124" t="s">
         <v>231</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124">
         <v>4401743</v>
       </c>
       <c r="C124" t="s">
@@ -2883,7 +2862,7 @@
       <c r="A125" t="s">
         <v>233</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125">
         <v>4399390</v>
       </c>
       <c r="C125" t="s">
@@ -2897,7 +2876,7 @@
       <c r="A126" t="s">
         <v>235</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126">
         <v>4398881</v>
       </c>
       <c r="C126" t="s">
@@ -2911,7 +2890,7 @@
       <c r="A127" t="s">
         <v>237</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127">
         <v>5309920</v>
       </c>
       <c r="C127" t="s">
@@ -2925,7 +2904,7 @@
       <c r="A128" t="s">
         <v>239</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128">
         <v>65000</v>
       </c>
       <c r="C128" t="s">
@@ -2935,10 +2914,21 @@
         <v>240</v>
       </c>
     </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>243</v>
+      </c>
+      <c r="B129">
+        <v>1400000</v>
+      </c>
+      <c r="C129" t="s">
+        <v>241</v>
+      </c>
+      <c r="D129" t="s">
+        <v>242</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{A4007FEF-3917-4835-B3C6-17C3A88BE28D}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/knowledge_base.xlsx
+++ b/knowledge_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\990180\ChatbotAI-LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46AE240-1AC8-460C-B22C-5D1B10133341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720D2C80-6D9C-4DFB-AFE9-7F0D273E444C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="310" windowWidth="9800" windowHeight="9770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6590" yWindow="310" windowWidth="12610" windowHeight="9770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="246">
   <si>
     <t>product_name</t>
   </si>
@@ -745,13 +745,19 @@
     <t>http://benziro.com/home/delivery/jasa-instalasi-listrik-murah-benziro</t>
   </si>
   <si>
+    <t>Ruijie RG-ES216GC 16-Port Gigabit Cloud Managed Switch</t>
+  </si>
+  <si>
     <t>Tokopedia</t>
   </si>
   <si>
     <t>https://www.tokopedia.com/sinshekomputer/ruijie-rg-es216gc-16-port-gigabit-ethernet-cloud-managed-switch)</t>
   </si>
   <si>
-    <t>Ruijie RG-ES216GC 16-Port Gigabit Cloud Managed Switch</t>
+    <t>Mini UPS 5V 2A 3000mAh Automatic Charging for Router WiFi CCTV</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/megatronsby/mini-ups-5v-2a-3000mah-automatic-charging-for-router-wifi-cctv)</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2916,16 +2922,30 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B129">
         <v>1400000</v>
       </c>
       <c r="C129" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D129" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>244</v>
+      </c>
+      <c r="B130">
+        <v>189900</v>
+      </c>
+      <c r="C130" t="s">
         <v>242</v>
+      </c>
+      <c r="D130" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
